--- a/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969704724603839</v>
+        <v>1.008097120644825</v>
       </c>
       <c r="D2">
-        <v>1.016269671544334</v>
+        <v>1.025310378992229</v>
       </c>
       <c r="E2">
-        <v>1.003226112256697</v>
+        <v>1.013402586713875</v>
       </c>
       <c r="F2">
-        <v>1.004820043924462</v>
+        <v>1.014259286963825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044030610488215</v>
+        <v>1.048416809436501</v>
       </c>
       <c r="J2">
-        <v>1.019242175298158</v>
+        <v>1.030038316291371</v>
       </c>
       <c r="K2">
-        <v>1.027506903421816</v>
+        <v>1.036428011560658</v>
       </c>
       <c r="L2">
-        <v>1.014640684443752</v>
+        <v>1.024678307369907</v>
       </c>
       <c r="M2">
-        <v>1.016212633848095</v>
+        <v>1.025523478317627</v>
       </c>
       <c r="N2">
-        <v>1.020689616095793</v>
+        <v>1.031501088847559</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003898027527925</v>
+        <v>1.012456004013669</v>
       </c>
       <c r="D3">
-        <v>1.021642584503877</v>
+        <v>1.028626596664103</v>
       </c>
       <c r="E3">
-        <v>1.008985470343968</v>
+        <v>1.016879803279528</v>
       </c>
       <c r="F3">
-        <v>1.012246241149397</v>
+        <v>1.019513331842241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046665437126087</v>
+        <v>1.050044995175561</v>
       </c>
       <c r="J3">
-        <v>1.024282989507569</v>
+        <v>1.032612770770209</v>
       </c>
       <c r="K3">
-        <v>1.032005835493499</v>
+        <v>1.038905842296108</v>
       </c>
       <c r="L3">
-        <v>1.019504657010098</v>
+        <v>1.027301165112958</v>
       </c>
       <c r="M3">
-        <v>1.022724790705476</v>
+        <v>1.029902478499864</v>
       </c>
       <c r="N3">
-        <v>1.025737588839571</v>
+        <v>1.034079199347044</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008248882038934</v>
+        <v>1.015218329178534</v>
       </c>
       <c r="D4">
-        <v>1.025018815372821</v>
+        <v>1.030730006529749</v>
       </c>
       <c r="E4">
-        <v>1.012608119867246</v>
+        <v>1.019089070071415</v>
       </c>
       <c r="F4">
-        <v>1.016913933850813</v>
+        <v>1.022844236217163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048305945476811</v>
+        <v>1.051066231001401</v>
       </c>
       <c r="J4">
-        <v>1.027443908642552</v>
+        <v>1.034240600175709</v>
       </c>
       <c r="K4">
-        <v>1.034824378865198</v>
+        <v>1.040471171823164</v>
       </c>
       <c r="L4">
-        <v>1.022556720800464</v>
+        <v>1.028962439120539</v>
       </c>
       <c r="M4">
-        <v>1.026812420108413</v>
+        <v>1.032674552998103</v>
       </c>
       <c r="N4">
-        <v>1.028902996842288</v>
+        <v>1.035709340457013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010048137477276</v>
+        <v>1.016366174279512</v>
       </c>
       <c r="D5">
-        <v>1.026415353903979</v>
+        <v>1.03160444826279</v>
       </c>
       <c r="E5">
-        <v>1.014107463963678</v>
+        <v>1.020008421988858</v>
       </c>
       <c r="F5">
-        <v>1.01884511306641</v>
+        <v>1.024228710822691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04898087689135</v>
+        <v>1.051488019525377</v>
       </c>
       <c r="J5">
-        <v>1.028749830982886</v>
+        <v>1.03491611657186</v>
       </c>
       <c r="K5">
-        <v>1.035988210647709</v>
+        <v>1.041120406418007</v>
       </c>
       <c r="L5">
-        <v>1.023818147199559</v>
+        <v>1.029652513973548</v>
       </c>
       <c r="M5">
-        <v>1.028502257600669</v>
+        <v>1.033825756481281</v>
       </c>
       <c r="N5">
-        <v>1.030210773742137</v>
+        <v>1.03638581616393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010348537047241</v>
+        <v>1.016558128341218</v>
       </c>
       <c r="D6">
-        <v>1.026648533510851</v>
+        <v>1.031750703348989</v>
       </c>
       <c r="E6">
-        <v>1.014357861083857</v>
+        <v>1.020162241780354</v>
       </c>
       <c r="F6">
-        <v>1.019167591675323</v>
+        <v>1.024460259363437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049093355323795</v>
+        <v>1.051558403089298</v>
       </c>
       <c r="J6">
-        <v>1.028967789949088</v>
+        <v>1.035029029170931</v>
       </c>
       <c r="K6">
-        <v>1.036182416467863</v>
+        <v>1.041228905443309</v>
       </c>
       <c r="L6">
-        <v>1.024028707541027</v>
+        <v>1.029767899939857</v>
       </c>
       <c r="M6">
-        <v>1.028784355738483</v>
+        <v>1.034018232185161</v>
       </c>
       <c r="N6">
-        <v>1.030429042235071</v>
+        <v>1.036498889111843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008273038905042</v>
+        <v>1.015233718908038</v>
       </c>
       <c r="D7">
-        <v>1.025037564164473</v>
+        <v>1.030741729082272</v>
       </c>
       <c r="E7">
-        <v>1.012628245347973</v>
+        <v>1.019101391105607</v>
       </c>
       <c r="F7">
-        <v>1.016939858351247</v>
+        <v>1.022862797047031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048315020996497</v>
+        <v>1.051071896330999</v>
       </c>
       <c r="J7">
-        <v>1.027461447004382</v>
+        <v>1.034249660769574</v>
       </c>
       <c r="K7">
-        <v>1.034840011527084</v>
+        <v>1.040479881280816</v>
       </c>
       <c r="L7">
-        <v>1.02257365971219</v>
+        <v>1.028971692300115</v>
       </c>
       <c r="M7">
-        <v>1.02683511016125</v>
+        <v>1.032689990457952</v>
       </c>
       <c r="N7">
-        <v>1.028920560110604</v>
+        <v>1.035718413917961</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9993400140948447</v>
+        <v>1.009582570788048</v>
       </c>
       <c r="D8">
-        <v>1.018107020261947</v>
+        <v>1.026440088235299</v>
       </c>
       <c r="E8">
-        <v>1.005194866411816</v>
+        <v>1.014586361954577</v>
       </c>
       <c r="F8">
-        <v>1.007359382578251</v>
+        <v>1.016049558602179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044934823977668</v>
+        <v>1.048973873493719</v>
       </c>
       <c r="J8">
-        <v>1.020967378476665</v>
+        <v>1.030916408230224</v>
       </c>
       <c r="K8">
-        <v>1.029047181570882</v>
+        <v>1.037273436948596</v>
       </c>
       <c r="L8">
-        <v>1.016304926750523</v>
+        <v>1.025572311136169</v>
       </c>
       <c r="M8">
-        <v>1.018440580665583</v>
+        <v>1.027016429948763</v>
       </c>
       <c r="N8">
-        <v>1.022417269260697</v>
+        <v>1.032380427777676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825057533489013</v>
+        <v>0.9991558065879361</v>
       </c>
       <c r="D9">
-        <v>1.005065678148916</v>
+        <v>1.018520059080627</v>
       </c>
       <c r="E9">
-        <v>0.9912355551901462</v>
+        <v>1.006302919148439</v>
       </c>
       <c r="F9">
-        <v>0.9893337733992736</v>
+        <v>1.003486309888848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038451527893189</v>
+        <v>1.045020093155855</v>
       </c>
       <c r="J9">
-        <v>1.008691771989572</v>
+        <v>1.024738410760373</v>
       </c>
       <c r="K9">
-        <v>1.018077099451443</v>
+        <v>1.031319641091443</v>
       </c>
       <c r="L9">
-        <v>1.004472448144357</v>
+        <v>1.019294556943226</v>
       </c>
       <c r="M9">
-        <v>1.00260230610309</v>
+        <v>1.016523076255621</v>
       </c>
       <c r="N9">
-        <v>1.010124230004361</v>
+        <v>1.026193656842791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9704156653238758</v>
+        <v>0.9918548091733289</v>
       </c>
       <c r="D10">
-        <v>0.9957203738113058</v>
+        <v>1.012988797550862</v>
       </c>
       <c r="E10">
-        <v>0.9812504718050847</v>
+        <v>1.000537484409498</v>
       </c>
       <c r="F10">
-        <v>0.9764061007240195</v>
+        <v>0.9946904727047708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033722115193199</v>
+        <v>1.042197625556836</v>
       </c>
       <c r="J10">
-        <v>0.999854296443932</v>
+        <v>1.0203953607842</v>
       </c>
       <c r="K10">
-        <v>1.010167330552003</v>
+        <v>1.027127429645853</v>
       </c>
       <c r="L10">
-        <v>0.9959667126582372</v>
+        <v>1.014897041185792</v>
       </c>
       <c r="M10">
-        <v>0.9912148302806224</v>
+        <v>1.009156258639924</v>
       </c>
       <c r="N10">
-        <v>1.001274204229773</v>
+        <v>1.021844439237497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9649402061414498</v>
+        <v>0.9886019983341656</v>
       </c>
       <c r="D11">
-        <v>0.9914948760427399</v>
+        <v>1.010528621198693</v>
       </c>
       <c r="E11">
-        <v>0.9767396945400565</v>
+        <v>0.9979777455846496</v>
       </c>
       <c r="F11">
-        <v>0.9705551545435632</v>
+        <v>0.9907709565226068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03156382659572</v>
+        <v>1.040927807892072</v>
       </c>
       <c r="J11">
-        <v>0.9958479175706224</v>
+        <v>1.018456757067571</v>
       </c>
       <c r="K11">
-        <v>1.006578988920807</v>
+        <v>1.025254677542773</v>
       </c>
       <c r="L11">
-        <v>0.9921140142384727</v>
+        <v>1.012937899693776</v>
       </c>
       <c r="M11">
-        <v>0.9860545728335145</v>
+        <v>1.005869043368422</v>
       </c>
       <c r="N11">
-        <v>0.9972621358389253</v>
+        <v>1.019903082481229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.962866851918655</v>
+        <v>0.9873792453048326</v>
       </c>
       <c r="D12">
-        <v>0.9898960557602472</v>
+        <v>1.009604515634648</v>
       </c>
       <c r="E12">
-        <v>0.9750335064653949</v>
+        <v>0.9970169265097993</v>
       </c>
       <c r="F12">
-        <v>0.9683401503998921</v>
+        <v>0.9892973865434267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030744194041276</v>
+        <v>1.040448665312006</v>
       </c>
       <c r="J12">
-        <v>0.9943303534977188</v>
+        <v>1.017727511818656</v>
       </c>
       <c r="K12">
-        <v>1.005219425724412</v>
+        <v>1.024549992909185</v>
       </c>
       <c r="L12">
-        <v>0.990655182681186</v>
+        <v>1.012201501525712</v>
       </c>
       <c r="M12">
-        <v>0.9841001220776958</v>
+        <v>1.004632544912856</v>
       </c>
       <c r="N12">
-        <v>0.9957424166509711</v>
+        <v>1.019172801620416</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9633134417164381</v>
+        <v>0.9876421998949936</v>
       </c>
       <c r="D13">
-        <v>0.9902403751636017</v>
+        <v>1.009803213411836</v>
       </c>
       <c r="E13">
-        <v>0.9754009229251976</v>
+        <v>0.9972234874353874</v>
       </c>
       <c r="F13">
-        <v>0.9688172275922748</v>
+        <v>0.9896142901265242</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030920843928605</v>
+        <v>1.040551786606367</v>
       </c>
       <c r="J13">
-        <v>0.9946572495943785</v>
+        <v>1.017884359435956</v>
       </c>
       <c r="K13">
-        <v>1.005512302148024</v>
+        <v>1.024701567315711</v>
       </c>
       <c r="L13">
-        <v>0.9909694033627778</v>
+        <v>1.012359861632937</v>
       </c>
       <c r="M13">
-        <v>0.9845211210970038</v>
+        <v>1.004898493025771</v>
       </c>
       <c r="N13">
-        <v>0.9960697769775836</v>
+        <v>1.019329871979323</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9647696496562368</v>
+        <v>0.9885012259720068</v>
       </c>
       <c r="D14">
-        <v>0.9913633293944909</v>
+        <v>1.01045244723554</v>
       </c>
       <c r="E14">
-        <v>0.9765993024589625</v>
+        <v>0.9978985314394196</v>
       </c>
       <c r="F14">
-        <v>0.9703729352466653</v>
+        <v>0.990649517827764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031496450128217</v>
+        <v>1.040888356215558</v>
       </c>
       <c r="J14">
-        <v>0.9957230904493692</v>
+        <v>1.01839666699192</v>
       </c>
       <c r="K14">
-        <v>1.00646716496331</v>
+        <v>1.025196615488188</v>
       </c>
       <c r="L14">
-        <v>0.9919940074450169</v>
+        <v>1.012877208540711</v>
       </c>
       <c r="M14">
-        <v>0.9858938066520389</v>
+        <v>1.005767155001044</v>
       </c>
       <c r="N14">
-        <v>0.9971371314488423</v>
+        <v>1.019842907070779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.965661520347241</v>
+        <v>0.9890285527869598</v>
       </c>
       <c r="D15">
-        <v>0.9920512613113783</v>
+        <v>1.010851082835488</v>
       </c>
       <c r="E15">
-        <v>0.9773335153529648</v>
+        <v>0.9983131048851873</v>
       </c>
       <c r="F15">
-        <v>0.9713258142681619</v>
+        <v>0.9912849798620943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031848678205862</v>
+        <v>1.04109472747704</v>
       </c>
       <c r="J15">
-        <v>0.9963758145029608</v>
+        <v>1.018711088819501</v>
       </c>
       <c r="K15">
-        <v>1.007051881300683</v>
+        <v>1.025500417156746</v>
       </c>
       <c r="L15">
-        <v>0.9926215471925812</v>
+        <v>1.013194798885331</v>
       </c>
       <c r="M15">
-        <v>0.9867344637096075</v>
+        <v>1.006300288282806</v>
       </c>
       <c r="N15">
-        <v>0.9977907824454585</v>
+        <v>1.020157775413419</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9707737078927818</v>
+        <v>0.9920686960581404</v>
       </c>
       <c r="D16">
-        <v>0.9959968384006039</v>
+        <v>1.013150657354863</v>
       </c>
       <c r="E16">
-        <v>0.9815456822017037</v>
+        <v>1.000705989903655</v>
       </c>
       <c r="F16">
-        <v>0.9767887725140061</v>
+        <v>0.9949481761113577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033862915179396</v>
+        <v>1.042280868538641</v>
       </c>
       <c r="J16">
-        <v>1.000116201106471</v>
+        <v>1.020522759760107</v>
       </c>
       <c r="K16">
-        <v>1.010401857782642</v>
+        <v>1.02725047123344</v>
       </c>
       <c r="L16">
-        <v>0.9962186410881438</v>
+        <v>1.015025868872097</v>
       </c>
       <c r="M16">
-        <v>0.9915521995293893</v>
+        <v>1.009372297887326</v>
       </c>
       <c r="N16">
-        <v>1.001536480826974</v>
+        <v>1.021972019134563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.973913819984938</v>
+        <v>0.993950687319061</v>
       </c>
       <c r="D17">
-        <v>0.9984222901266261</v>
+        <v>1.01457534376862</v>
       </c>
       <c r="E17">
-        <v>0.9841360411527031</v>
+        <v>1.002189693944733</v>
       </c>
       <c r="F17">
-        <v>0.9801453174274862</v>
+        <v>0.99721561792461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03509592352471</v>
+        <v>1.043011926224947</v>
       </c>
       <c r="J17">
-        <v>1.002412723892125</v>
+        <v>1.021643333077574</v>
       </c>
       <c r="K17">
-        <v>1.012458038977609</v>
+        <v>1.02833255121932</v>
       </c>
       <c r="L17">
-        <v>0.9984280604817485</v>
+        <v>1.016159438516184</v>
       </c>
       <c r="M17">
-        <v>0.994510663447991</v>
+        <v>1.011272644213381</v>
       </c>
       <c r="N17">
-        <v>1.003836264938399</v>
+        <v>1.023094183794673</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757224544060638</v>
+        <v>0.995039654668012</v>
       </c>
       <c r="D18">
-        <v>0.9998199293735366</v>
+        <v>1.015400093660319</v>
       </c>
       <c r="E18">
-        <v>0.9856290839251737</v>
+        <v>1.003049045489234</v>
       </c>
       <c r="F18">
-        <v>0.9820789766620958</v>
+        <v>0.9985275556584604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035804562742247</v>
+        <v>1.043433762652169</v>
       </c>
       <c r="J18">
-        <v>1.003735087835489</v>
+        <v>1.022291376580885</v>
       </c>
       <c r="K18">
-        <v>1.013641771795085</v>
+        <v>1.028958192672917</v>
       </c>
       <c r="L18">
-        <v>0.999700576205843</v>
+        <v>1.016815355173563</v>
       </c>
       <c r="M18">
-        <v>0.9962143906637496</v>
+        <v>1.012371753905519</v>
       </c>
       <c r="N18">
-        <v>1.005160506790239</v>
+        <v>1.02374314759409</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763353575749174</v>
+        <v>0.9954095001807552</v>
       </c>
       <c r="D19">
-        <v>1.000293658290454</v>
+        <v>1.01568026747271</v>
       </c>
       <c r="E19">
-        <v>0.986135214594436</v>
+        <v>1.003341047927637</v>
       </c>
       <c r="F19">
-        <v>0.9827343107734602</v>
+        <v>0.998973120775154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036044438808808</v>
+        <v>1.043576830768679</v>
       </c>
       <c r="J19">
-        <v>1.00418313785839</v>
+        <v>1.022511411168166</v>
       </c>
       <c r="K19">
-        <v>1.014042808510363</v>
+        <v>1.029170596727528</v>
       </c>
       <c r="L19">
-        <v>1.000131787742013</v>
+        <v>1.017038123413697</v>
       </c>
       <c r="M19">
-        <v>0.9967916954514123</v>
+        <v>1.012744964320406</v>
       </c>
       <c r="N19">
-        <v>1.005609193095565</v>
+        <v>1.023963494655723</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9735793117044015</v>
+        <v>0.9937496796506486</v>
       </c>
       <c r="D20">
-        <v>0.9981638457576933</v>
+        <v>1.014423137950349</v>
       </c>
       <c r="E20">
-        <v>0.9838599860083992</v>
+        <v>1.002031137769129</v>
       </c>
       <c r="F20">
-        <v>0.9797877155241386</v>
+        <v>0.9969734488380541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034964734284732</v>
+        <v>1.042933966285975</v>
       </c>
       <c r="J20">
-        <v>1.00216812006605</v>
+        <v>1.021523685182055</v>
       </c>
       <c r="K20">
-        <v>1.012239058746256</v>
+        <v>1.028217027937768</v>
       </c>
       <c r="L20">
-        <v>0.9981927020058033</v>
+        <v>1.016038365845789</v>
       </c>
       <c r="M20">
-        <v>0.9941955349938614</v>
+        <v>1.011069726086839</v>
       </c>
       <c r="N20">
-        <v>1.003591313746834</v>
+        <v>1.022974365985418</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9643419534434885</v>
+        <v>0.9882486713995888</v>
       </c>
       <c r="D21">
-        <v>0.9910334765314125</v>
+        <v>1.010261552253834</v>
       </c>
       <c r="E21">
-        <v>0.9762472788468302</v>
+        <v>0.9977000286541844</v>
       </c>
       <c r="F21">
-        <v>0.9699160011747924</v>
+        <v>0.9903451660090652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031327455693621</v>
+        <v>1.040789453857238</v>
       </c>
       <c r="J21">
-        <v>0.9954100599312805</v>
+        <v>1.018246061803227</v>
       </c>
       <c r="K21">
-        <v>1.006186737194793</v>
+        <v>1.025051089820876</v>
       </c>
       <c r="L21">
-        <v>0.9916930733829259</v>
+        <v>1.012725106102905</v>
       </c>
       <c r="M21">
-        <v>0.9854906538398227</v>
+        <v>1.005511790244111</v>
       </c>
       <c r="N21">
-        <v>0.9968236563915126</v>
+        <v>1.019692088005443</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9583033472513575</v>
+        <v>0.9847055666189947</v>
       </c>
       <c r="D22">
-        <v>0.9863794865088814</v>
+        <v>1.007585206508691</v>
       </c>
       <c r="E22">
-        <v>0.9712818138022169</v>
+        <v>0.9949186459330035</v>
       </c>
       <c r="F22">
-        <v>0.96346579837139</v>
+        <v>0.9860747986966277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028935905090887</v>
+        <v>1.039397688865952</v>
       </c>
       <c r="J22">
-        <v>0.990989365170252</v>
+        <v>1.016132041150776</v>
       </c>
       <c r="K22">
-        <v>1.00222568501691</v>
+        <v>1.023007881864319</v>
       </c>
       <c r="L22">
-        <v>0.9874444889552704</v>
+        <v>1.0105914420247</v>
       </c>
       <c r="M22">
-        <v>0.979797491146607</v>
+        <v>1.001927257642338</v>
       </c>
       <c r="N22">
-        <v>0.9923966837368625</v>
+        <v>1.017575065201185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615276565937301</v>
+        <v>0.9865921087412401</v>
       </c>
       <c r="D23">
-        <v>0.9888637343683347</v>
+        <v>1.009009833879633</v>
       </c>
       <c r="E23">
-        <v>0.9739320187585018</v>
+        <v>0.9963988111104733</v>
       </c>
       <c r="F23">
-        <v>0.9669096063805651</v>
+        <v>0.9883487209143224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030214132080719</v>
+        <v>1.040139716876316</v>
       </c>
       <c r="J23">
-        <v>0.9933500212174069</v>
+        <v>1.017257927162324</v>
       </c>
       <c r="K23">
-        <v>1.004341067438295</v>
+        <v>1.024096165663479</v>
       </c>
       <c r="L23">
-        <v>0.9897129413190039</v>
+        <v>1.011727473059724</v>
       </c>
       <c r="M23">
-        <v>0.9828375998284926</v>
+        <v>1.003836324321072</v>
       </c>
       <c r="N23">
-        <v>0.9947606921863754</v>
+        <v>1.01870255010001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9737305322358568</v>
+        <v>0.9938405333974583</v>
       </c>
       <c r="D24">
-        <v>0.9982806782656012</v>
+        <v>1.014491932472097</v>
       </c>
       <c r="E24">
-        <v>0.9839847784786315</v>
+        <v>1.002102801194477</v>
       </c>
       <c r="F24">
-        <v>0.9799493748112734</v>
+        <v>0.9970829073760095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035024045568612</v>
+        <v>1.04296920714844</v>
       </c>
       <c r="J24">
-        <v>1.002278698853237</v>
+        <v>1.021577766090243</v>
       </c>
       <c r="K24">
-        <v>1.012338054545193</v>
+        <v>1.028269244955953</v>
       </c>
       <c r="L24">
-        <v>0.9982991002680933</v>
+        <v>1.01609308964554</v>
       </c>
       <c r="M24">
-        <v>0.9943379953993337</v>
+        <v>1.01116144482395</v>
       </c>
       <c r="N24">
-        <v>1.003702049568582</v>
+        <v>1.023028523694698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870000661199312</v>
+        <v>1.001910349417436</v>
       </c>
       <c r="D25">
-        <v>1.008544427849523</v>
+        <v>1.020610108973459</v>
       </c>
       <c r="E25">
-        <v>0.9949560140898812</v>
+        <v>1.008485464201533</v>
       </c>
       <c r="F25">
-        <v>0.9941429559915452</v>
+        <v>1.006804764612435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040195151999732</v>
+        <v>1.046074051136106</v>
       </c>
       <c r="J25">
-        <v>1.011972992431477</v>
+        <v>1.026373593277513</v>
       </c>
       <c r="K25">
-        <v>1.0210115349597</v>
+        <v>1.032896687782741</v>
       </c>
       <c r="L25">
-        <v>1.007633139361985</v>
+        <v>1.020953467051186</v>
       </c>
       <c r="M25">
-        <v>1.006832880607103</v>
+        <v>1.019298355871343</v>
       </c>
       <c r="N25">
-        <v>1.013410110155655</v>
+        <v>1.027831161506664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008097120644825</v>
+        <v>1.00436853829572</v>
       </c>
       <c r="D2">
-        <v>1.025310378992229</v>
+        <v>1.021291319537928</v>
       </c>
       <c r="E2">
-        <v>1.013402586713875</v>
+        <v>1.010253792854549</v>
       </c>
       <c r="F2">
-        <v>1.014259286963825</v>
+        <v>1.027276773302868</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048416809436501</v>
+        <v>1.04656297262264</v>
       </c>
       <c r="J2">
-        <v>1.030038316291371</v>
+        <v>1.026419367635468</v>
       </c>
       <c r="K2">
-        <v>1.036428011560658</v>
+        <v>1.032461792234507</v>
       </c>
       <c r="L2">
-        <v>1.024678307369907</v>
+        <v>1.021572100740893</v>
       </c>
       <c r="M2">
-        <v>1.025523478317627</v>
+        <v>1.03836874156899</v>
       </c>
       <c r="N2">
-        <v>1.031501088847559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012751815377701</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038938674030307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012456004013669</v>
+        <v>1.007786111411878</v>
       </c>
       <c r="D3">
-        <v>1.028626596664103</v>
+        <v>1.023678641182079</v>
       </c>
       <c r="E3">
-        <v>1.016879803279528</v>
+        <v>1.012906940088607</v>
       </c>
       <c r="F3">
-        <v>1.019513331842241</v>
+        <v>1.029898256047175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050044995175561</v>
+        <v>1.047519996911115</v>
       </c>
       <c r="J3">
-        <v>1.032612770770209</v>
+        <v>1.028066746408768</v>
       </c>
       <c r="K3">
-        <v>1.038905842296108</v>
+        <v>1.034017255040982</v>
       </c>
       <c r="L3">
-        <v>1.027301165112958</v>
+        <v>1.023377295430893</v>
       </c>
       <c r="M3">
-        <v>1.029902478499864</v>
+        <v>1.040162357842892</v>
       </c>
       <c r="N3">
-        <v>1.034079199347044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013303865389202</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040358202732864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015218329178534</v>
+        <v>1.009958887801827</v>
       </c>
       <c r="D4">
-        <v>1.030730006529749</v>
+        <v>1.025198549508951</v>
       </c>
       <c r="E4">
-        <v>1.019089070071415</v>
+        <v>1.014599251219229</v>
       </c>
       <c r="F4">
-        <v>1.022844236217163</v>
+        <v>1.031571713554869</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051066231001401</v>
+        <v>1.04811865884294</v>
       </c>
       <c r="J4">
-        <v>1.034240600175709</v>
+        <v>1.029111229908676</v>
       </c>
       <c r="K4">
-        <v>1.040471171823164</v>
+        <v>1.035002072876079</v>
       </c>
       <c r="L4">
-        <v>1.028962439120539</v>
+        <v>1.024524612323189</v>
       </c>
       <c r="M4">
-        <v>1.032674552998103</v>
+        <v>1.041303462148654</v>
       </c>
       <c r="N4">
-        <v>1.035709340457013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013653816223429</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041261309894322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016366174279512</v>
+        <v>1.010863319689807</v>
       </c>
       <c r="D5">
-        <v>1.03160444826279</v>
+        <v>1.025831695439754</v>
       </c>
       <c r="E5">
-        <v>1.020008421988858</v>
+        <v>1.015304984901422</v>
       </c>
       <c r="F5">
-        <v>1.024228710822691</v>
+        <v>1.03226990115357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051488019525377</v>
+        <v>1.048365472952669</v>
       </c>
       <c r="J5">
-        <v>1.03491611657186</v>
+        <v>1.029545290318309</v>
       </c>
       <c r="K5">
-        <v>1.041120406418007</v>
+        <v>1.035410996283283</v>
       </c>
       <c r="L5">
-        <v>1.029652513973548</v>
+        <v>1.02500207715967</v>
       </c>
       <c r="M5">
-        <v>1.033825756481281</v>
+        <v>1.041778613383796</v>
       </c>
       <c r="N5">
-        <v>1.03638581616393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013799229945673</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041637359744558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016558128341218</v>
+        <v>1.011014656714653</v>
       </c>
       <c r="D6">
-        <v>1.031750703348989</v>
+        <v>1.025937665489836</v>
       </c>
       <c r="E6">
-        <v>1.020162241780354</v>
+        <v>1.015423149606396</v>
       </c>
       <c r="F6">
-        <v>1.024460259363437</v>
+        <v>1.032386820797947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051558403089298</v>
+        <v>1.048406630849642</v>
       </c>
       <c r="J6">
-        <v>1.035029029170931</v>
+        <v>1.029617878291643</v>
       </c>
       <c r="K6">
-        <v>1.041228905443309</v>
+        <v>1.035479360272473</v>
       </c>
       <c r="L6">
-        <v>1.029767899939857</v>
+        <v>1.02508196314301</v>
       </c>
       <c r="M6">
-        <v>1.034018232185161</v>
+        <v>1.041858128162497</v>
       </c>
       <c r="N6">
-        <v>1.036498889111843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013823546468404</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04170029025876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015233718908038</v>
+        <v>1.009971007925873</v>
       </c>
       <c r="D7">
-        <v>1.030741729082272</v>
+        <v>1.025207032354779</v>
       </c>
       <c r="E7">
-        <v>1.019101391105607</v>
+        <v>1.014608703536117</v>
       </c>
       <c r="F7">
-        <v>1.022862797047031</v>
+        <v>1.031581063562311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051071896330999</v>
+        <v>1.04812197580667</v>
       </c>
       <c r="J7">
-        <v>1.034249660769574</v>
+        <v>1.029117049517536</v>
       </c>
       <c r="K7">
-        <v>1.040479881280816</v>
+        <v>1.035007556824</v>
       </c>
       <c r="L7">
-        <v>1.028971692300115</v>
+        <v>1.024531011220778</v>
       </c>
       <c r="M7">
-        <v>1.032689990457952</v>
+        <v>1.041309828970525</v>
       </c>
       <c r="N7">
-        <v>1.035718413917961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013655765907489</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041266348801618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009582570788048</v>
+        <v>1.005531669289769</v>
       </c>
       <c r="D8">
-        <v>1.026440088235299</v>
+        <v>1.022103347967677</v>
       </c>
       <c r="E8">
-        <v>1.014586361954577</v>
+        <v>1.011155585381502</v>
       </c>
       <c r="F8">
-        <v>1.016049558602179</v>
+        <v>1.02816751886084</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048973873493719</v>
+        <v>1.0468907097317</v>
       </c>
       <c r="J8">
-        <v>1.030916408230224</v>
+        <v>1.02698061745822</v>
       </c>
       <c r="K8">
-        <v>1.037273436948596</v>
+        <v>1.032992012977123</v>
       </c>
       <c r="L8">
-        <v>1.025572311136169</v>
+        <v>1.02218653806511</v>
       </c>
       <c r="M8">
-        <v>1.027016429948763</v>
+        <v>1.038978995924245</v>
       </c>
       <c r="N8">
-        <v>1.032380427777676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012939907305691</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039421650322634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9991558065879361</v>
+        <v>0.9974018084125146</v>
       </c>
       <c r="D9">
-        <v>1.018520059080627</v>
+        <v>1.016438096119474</v>
       </c>
       <c r="E9">
-        <v>1.006302919148439</v>
+        <v>1.004876933209355</v>
       </c>
       <c r="F9">
-        <v>1.003486309888848</v>
+        <v>1.021971683015255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045020093155855</v>
+        <v>1.044560137719979</v>
       </c>
       <c r="J9">
-        <v>1.024738410760373</v>
+        <v>1.023046650317092</v>
       </c>
       <c r="K9">
-        <v>1.031319641091443</v>
+        <v>1.029269989879549</v>
       </c>
       <c r="L9">
-        <v>1.019294556943226</v>
+        <v>1.01789137803944</v>
       </c>
       <c r="M9">
-        <v>1.016523076255621</v>
+        <v>1.034718066479663</v>
       </c>
       <c r="N9">
-        <v>1.026193656842791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011621301989872</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036049397347106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918548091733289</v>
+        <v>0.9918125486045273</v>
       </c>
       <c r="D10">
-        <v>1.012988797550862</v>
+        <v>1.012567574785273</v>
       </c>
       <c r="E10">
-        <v>1.000537484409498</v>
+        <v>1.000599271694599</v>
       </c>
       <c r="F10">
-        <v>0.9946904727047708</v>
+        <v>1.017926048565775</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042197625556836</v>
+        <v>1.042936275009608</v>
       </c>
       <c r="J10">
-        <v>1.0203953607842</v>
+        <v>1.02035481635952</v>
       </c>
       <c r="K10">
-        <v>1.027127429645853</v>
+        <v>1.026713565659277</v>
       </c>
       <c r="L10">
-        <v>1.014897041185792</v>
+        <v>1.014957714529247</v>
       </c>
       <c r="M10">
-        <v>1.009156258639924</v>
+        <v>1.03197901387553</v>
       </c>
       <c r="N10">
-        <v>1.021844439237497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010722944596191</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033933327678862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9886019983341656</v>
+        <v>0.9897541176425585</v>
       </c>
       <c r="D11">
-        <v>1.010528621198693</v>
+        <v>1.011217554135077</v>
       </c>
       <c r="E11">
-        <v>0.9979777455846496</v>
+        <v>0.999084993422337</v>
       </c>
       <c r="F11">
-        <v>0.9907709565226068</v>
+        <v>1.017825191972731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040927807892072</v>
+        <v>1.042536010478583</v>
       </c>
       <c r="J11">
-        <v>1.018456757067571</v>
+        <v>1.019559437755408</v>
       </c>
       <c r="K11">
-        <v>1.025254677542773</v>
+        <v>1.025930979651866</v>
       </c>
       <c r="L11">
-        <v>1.012937899693776</v>
+        <v>1.014024186081188</v>
       </c>
       <c r="M11">
-        <v>1.005869043368422</v>
+        <v>1.032418602437017</v>
       </c>
       <c r="N11">
-        <v>1.019903082481229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010492661165145</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034719322470623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873792453048326</v>
+        <v>0.9891144174693924</v>
       </c>
       <c r="D12">
-        <v>1.009604515634648</v>
+        <v>1.010823344663693</v>
       </c>
       <c r="E12">
-        <v>0.9970169265097993</v>
+        <v>0.9986373925929274</v>
       </c>
       <c r="F12">
-        <v>0.9892973865434267</v>
+        <v>1.018354674713411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040448665312006</v>
+        <v>1.042487747490597</v>
       </c>
       <c r="J12">
-        <v>1.017727511818656</v>
+        <v>1.019386728074958</v>
       </c>
       <c r="K12">
-        <v>1.024549992909185</v>
+        <v>1.025746083179661</v>
       </c>
       <c r="L12">
-        <v>1.012201501525712</v>
+        <v>1.01379074465339</v>
       </c>
       <c r="M12">
-        <v>1.004632544912856</v>
+        <v>1.033138478641924</v>
       </c>
       <c r="N12">
-        <v>1.019172801620416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010463471668654</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035616199777776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9876421998949936</v>
+        <v>0.9895243310334277</v>
       </c>
       <c r="D13">
-        <v>1.009803213411836</v>
+        <v>1.011138470388458</v>
       </c>
       <c r="E13">
-        <v>0.9972234874353874</v>
+        <v>0.9989789224166612</v>
       </c>
       <c r="F13">
-        <v>0.9896142901265242</v>
+        <v>1.019424916881978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040551786606367</v>
+        <v>1.042712649127247</v>
       </c>
       <c r="J13">
-        <v>1.017884359435956</v>
+        <v>1.01968448377203</v>
       </c>
       <c r="K13">
-        <v>1.024701567315711</v>
+        <v>1.026012013365337</v>
       </c>
       <c r="L13">
-        <v>1.012359861632937</v>
+        <v>1.014081611078847</v>
       </c>
       <c r="M13">
-        <v>1.004898493025771</v>
+        <v>1.03414637673568</v>
       </c>
       <c r="N13">
-        <v>1.019329871979323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010588007913147</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03669048701496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9885012259720068</v>
+        <v>0.9902816788607683</v>
       </c>
       <c r="D14">
-        <v>1.01045244723554</v>
+        <v>1.011675769428971</v>
       </c>
       <c r="E14">
-        <v>0.9978985314394196</v>
+        <v>0.9995709916740817</v>
       </c>
       <c r="F14">
-        <v>0.990649517827764</v>
+        <v>1.020405121900026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040888356215558</v>
+        <v>1.042989171197044</v>
       </c>
       <c r="J14">
-        <v>1.01839666699192</v>
+        <v>1.02010065631075</v>
       </c>
       <c r="K14">
-        <v>1.025196615488188</v>
+        <v>1.026397491108199</v>
       </c>
       <c r="L14">
-        <v>1.012877208540711</v>
+        <v>1.014517982489965</v>
       </c>
       <c r="M14">
-        <v>1.005767155001044</v>
+        <v>1.034968699110554</v>
       </c>
       <c r="N14">
-        <v>1.019842907070779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010742885616957</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037514161160905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9890285527869598</v>
+        <v>0.9907001755246464</v>
       </c>
       <c r="D15">
-        <v>1.010851082835488</v>
+        <v>1.011967009876182</v>
       </c>
       <c r="E15">
-        <v>0.9983131048851873</v>
+        <v>0.9998924460872705</v>
       </c>
       <c r="F15">
-        <v>0.9912849798620943</v>
+        <v>1.020793482037951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04109472747704</v>
+        <v>1.043122144841956</v>
       </c>
       <c r="J15">
-        <v>1.018711088819501</v>
+        <v>1.020311556790738</v>
       </c>
       <c r="K15">
-        <v>1.025500417156746</v>
+        <v>1.026596026364066</v>
       </c>
       <c r="L15">
-        <v>1.013194798885331</v>
+        <v>1.014744452115279</v>
       </c>
       <c r="M15">
-        <v>1.006300288282806</v>
+        <v>1.03526382503804</v>
       </c>
       <c r="N15">
-        <v>1.020157775413419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010816630772081</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037785022782508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9920686960581404</v>
+        <v>0.9929798490044432</v>
       </c>
       <c r="D16">
-        <v>1.013150657354863</v>
+        <v>1.013538662330772</v>
       </c>
       <c r="E16">
-        <v>1.000705989903655</v>
+        <v>1.00162532638701</v>
       </c>
       <c r="F16">
-        <v>0.9949481761113577</v>
+        <v>1.022347307762068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042280868538641</v>
+        <v>1.043779111161507</v>
       </c>
       <c r="J16">
-        <v>1.020522759760107</v>
+        <v>1.021397103513379</v>
       </c>
       <c r="K16">
-        <v>1.02725047123344</v>
+        <v>1.027631727381543</v>
       </c>
       <c r="L16">
-        <v>1.015025868872097</v>
+        <v>1.01592870528486</v>
       </c>
       <c r="M16">
-        <v>1.009372297887326</v>
+        <v>1.0362889377518</v>
       </c>
       <c r="N16">
-        <v>1.021972019134563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011174154517568</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038556490464043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.993950687319061</v>
+        <v>0.9943367597908308</v>
       </c>
       <c r="D17">
-        <v>1.01457534376862</v>
+        <v>1.014467301340327</v>
       </c>
       <c r="E17">
-        <v>1.002189693944733</v>
+        <v>1.002650043291981</v>
       </c>
       <c r="F17">
-        <v>0.99721561792461</v>
+        <v>1.023024136865674</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043011926224947</v>
+        <v>1.044138097403078</v>
       </c>
       <c r="J17">
-        <v>1.021643333077574</v>
+        <v>1.022014321112382</v>
       </c>
       <c r="K17">
-        <v>1.02833255121932</v>
+        <v>1.028226333843491</v>
       </c>
       <c r="L17">
-        <v>1.016159438516184</v>
+        <v>1.016611766650122</v>
       </c>
       <c r="M17">
-        <v>1.011272644213381</v>
+        <v>1.036640163694289</v>
       </c>
       <c r="N17">
-        <v>1.023094183794673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011367977959134</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038704846599076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995039654668012</v>
+        <v>0.9950103086043173</v>
       </c>
       <c r="D18">
-        <v>1.015400093660319</v>
+        <v>1.014910238656099</v>
       </c>
       <c r="E18">
-        <v>1.003049045489234</v>
+        <v>1.003142797077129</v>
       </c>
       <c r="F18">
-        <v>0.9985275556584604</v>
+        <v>1.022901121203766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043433762652169</v>
+        <v>1.044255528104227</v>
       </c>
       <c r="J18">
-        <v>1.022291376580885</v>
+        <v>1.022263154879402</v>
       </c>
       <c r="K18">
-        <v>1.028958192672917</v>
+        <v>1.028476471233794</v>
       </c>
       <c r="L18">
-        <v>1.016815355173563</v>
+        <v>1.016907501369259</v>
       </c>
       <c r="M18">
-        <v>1.012371753905519</v>
+        <v>1.036335923021033</v>
       </c>
       <c r="N18">
-        <v>1.02374314759409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011430374728998</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03822612447754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9954095001807552</v>
+        <v>0.9950368269851702</v>
       </c>
       <c r="D19">
-        <v>1.01568026747271</v>
+        <v>1.014886967916669</v>
       </c>
       <c r="E19">
-        <v>1.003341047927637</v>
+        <v>1.003128831024976</v>
       </c>
       <c r="F19">
-        <v>0.998973120775154</v>
+        <v>1.021989335673934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043576830768679</v>
+        <v>1.044134347725073</v>
       </c>
       <c r="J19">
-        <v>1.022511411168166</v>
+        <v>1.022152924946443</v>
       </c>
       <c r="K19">
-        <v>1.029170596727528</v>
+        <v>1.028390394462573</v>
       </c>
       <c r="L19">
-        <v>1.017038123413697</v>
+        <v>1.016829519702876</v>
       </c>
       <c r="M19">
-        <v>1.012744964320406</v>
+        <v>1.03537643259461</v>
       </c>
       <c r="N19">
-        <v>1.023963494655723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011366574315975</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03714097546783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9937496796506486</v>
+        <v>0.9932613732493349</v>
       </c>
       <c r="D20">
-        <v>1.014423137950349</v>
+        <v>1.013570075278571</v>
       </c>
       <c r="E20">
-        <v>1.002031137769129</v>
+        <v>1.001705926114984</v>
       </c>
       <c r="F20">
-        <v>0.9969734488380541</v>
+        <v>1.018979953311544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042933966285975</v>
+        <v>1.043361830254411</v>
       </c>
       <c r="J20">
-        <v>1.021523685182055</v>
+        <v>1.021054552022668</v>
       </c>
       <c r="K20">
-        <v>1.028217027937768</v>
+        <v>1.027378435571875</v>
       </c>
       <c r="L20">
-        <v>1.016038365845789</v>
+        <v>1.015718845048384</v>
       </c>
       <c r="M20">
-        <v>1.011069726086839</v>
+        <v>1.032697076038676</v>
       </c>
       <c r="N20">
-        <v>1.022974365985418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010956656224763</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03449099412593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9882486713995888</v>
+        <v>0.9889872716458724</v>
       </c>
       <c r="D21">
-        <v>1.010261552253834</v>
+        <v>1.010601740241391</v>
       </c>
       <c r="E21">
-        <v>0.9977000286541844</v>
+        <v>0.9984362896080318</v>
       </c>
       <c r="F21">
-        <v>0.9903451660090652</v>
+        <v>1.015629842690157</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040789453857238</v>
+        <v>1.042062408309225</v>
       </c>
       <c r="J21">
-        <v>1.018246061803227</v>
+        <v>1.01895275716678</v>
       </c>
       <c r="K21">
-        <v>1.025051089820876</v>
+        <v>1.02538500509573</v>
       </c>
       <c r="L21">
-        <v>1.012725106102905</v>
+        <v>1.013447347644428</v>
       </c>
       <c r="M21">
-        <v>1.005511790244111</v>
+        <v>1.030321032219643</v>
       </c>
       <c r="N21">
-        <v>1.019692088005443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010248749278168</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032569409305366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9847055666189947</v>
+        <v>0.9862747685786699</v>
       </c>
       <c r="D22">
-        <v>1.007585206508691</v>
+        <v>1.008726604721836</v>
       </c>
       <c r="E22">
-        <v>0.9949186459330035</v>
+        <v>0.9963720817321945</v>
       </c>
       <c r="F22">
-        <v>0.9860747986966277</v>
+        <v>1.013600175877437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039397688865952</v>
+        <v>1.041241600719611</v>
       </c>
       <c r="J22">
-        <v>1.016132041150776</v>
+        <v>1.017629423916224</v>
       </c>
       <c r="K22">
-        <v>1.023007881864319</v>
+        <v>1.02412714571282</v>
       </c>
       <c r="L22">
-        <v>1.0105914420247</v>
+        <v>1.012015752620818</v>
       </c>
       <c r="M22">
-        <v>1.001927257642338</v>
+        <v>1.028906940913205</v>
       </c>
       <c r="N22">
-        <v>1.017575065201185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009805045587429</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031450237458822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9865921087412401</v>
+        <v>0.9877177409814002</v>
       </c>
       <c r="D23">
-        <v>1.009009833879633</v>
+        <v>1.009723731378843</v>
       </c>
       <c r="E23">
-        <v>0.9963988111104733</v>
+        <v>0.9974694658824005</v>
       </c>
       <c r="F23">
-        <v>0.9883487209143224</v>
+        <v>1.014679025326369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040139716876316</v>
+        <v>1.041679118232104</v>
       </c>
       <c r="J23">
-        <v>1.017257927162324</v>
+        <v>1.018333587155999</v>
       </c>
       <c r="K23">
-        <v>1.024096165663479</v>
+        <v>1.024796581626187</v>
       </c>
       <c r="L23">
-        <v>1.011727473059724</v>
+        <v>1.012777242238789</v>
       </c>
       <c r="M23">
-        <v>1.003836324321072</v>
+        <v>1.029658979891373</v>
       </c>
       <c r="N23">
-        <v>1.01870255010001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01004114705672</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032045433231264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9938405333974583</v>
+        <v>0.9932893456733005</v>
       </c>
       <c r="D24">
-        <v>1.014491932472097</v>
+        <v>1.013582074940038</v>
       </c>
       <c r="E24">
-        <v>1.002102801194477</v>
+        <v>1.00172204534317</v>
       </c>
       <c r="F24">
-        <v>0.9970829073760095</v>
+        <v>1.018863480034263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04296920714844</v>
+        <v>1.043349147561595</v>
       </c>
       <c r="J24">
-        <v>1.021577766090243</v>
+        <v>1.021048186522315</v>
       </c>
       <c r="K24">
-        <v>1.028269244955953</v>
+        <v>1.027374799724267</v>
       </c>
       <c r="L24">
-        <v>1.01609308964554</v>
+        <v>1.015718987273394</v>
       </c>
       <c r="M24">
-        <v>1.01116144482395</v>
+        <v>1.032567236506802</v>
       </c>
       <c r="N24">
-        <v>1.023028523694698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010951307193801</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034347146988885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001910349417436</v>
+        <v>0.9995416377675501</v>
       </c>
       <c r="D25">
-        <v>1.020610108973459</v>
+        <v>1.017926800489487</v>
       </c>
       <c r="E25">
-        <v>1.008485464201533</v>
+        <v>1.006524037490585</v>
       </c>
       <c r="F25">
-        <v>1.006804764612435</v>
+        <v>1.023595744170479</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046074051136106</v>
+        <v>1.045182182178769</v>
       </c>
       <c r="J25">
-        <v>1.026373593277513</v>
+        <v>1.024084437482609</v>
       </c>
       <c r="K25">
-        <v>1.032896687782741</v>
+        <v>1.030253056927422</v>
       </c>
       <c r="L25">
-        <v>1.020953467051186</v>
+        <v>1.019021913400955</v>
       </c>
       <c r="M25">
-        <v>1.019298355871343</v>
+        <v>1.035838485197649</v>
       </c>
       <c r="N25">
-        <v>1.027831161506664</v>
+        <v>1.011969194712714</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036936138606637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00436853829572</v>
+        <v>1.004371797565242</v>
       </c>
       <c r="D2">
-        <v>1.021291319537928</v>
+        <v>1.020967322860365</v>
       </c>
       <c r="E2">
-        <v>1.010253792854549</v>
+        <v>1.010260717369053</v>
       </c>
       <c r="F2">
-        <v>1.027276773302868</v>
+        <v>1.027254408849923</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04656297262264</v>
+        <v>1.046443430881069</v>
       </c>
       <c r="J2">
-        <v>1.026419367635468</v>
+        <v>1.026422530582569</v>
       </c>
       <c r="K2">
-        <v>1.032461792234507</v>
+        <v>1.032142077996165</v>
       </c>
       <c r="L2">
-        <v>1.021572100740893</v>
+        <v>1.021578931235351</v>
       </c>
       <c r="M2">
-        <v>1.03836874156899</v>
+        <v>1.038346668312912</v>
       </c>
       <c r="N2">
-        <v>1.012751815377701</v>
+        <v>1.014237313471123</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038938674030307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038921204489931</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020668428909885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007786111411878</v>
+        <v>1.007653969596939</v>
       </c>
       <c r="D3">
-        <v>1.023678641182079</v>
+        <v>1.023159997477023</v>
       </c>
       <c r="E3">
-        <v>1.012906940088607</v>
+        <v>1.012796043014967</v>
       </c>
       <c r="F3">
-        <v>1.029898256047175</v>
+        <v>1.029808978200672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047519996911115</v>
+        <v>1.04729442133608</v>
       </c>
       <c r="J3">
-        <v>1.028066746408768</v>
+        <v>1.027938132333186</v>
       </c>
       <c r="K3">
-        <v>1.034017255040982</v>
+        <v>1.03350487558285</v>
       </c>
       <c r="L3">
-        <v>1.023377295430893</v>
+        <v>1.023267772810859</v>
       </c>
       <c r="M3">
-        <v>1.040162357842892</v>
+        <v>1.040074141668306</v>
       </c>
       <c r="N3">
-        <v>1.013303865389202</v>
+        <v>1.014640795222906</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040358202732864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040288385528282</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020931499644161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009958887801827</v>
+        <v>1.009741497064759</v>
       </c>
       <c r="D4">
-        <v>1.025198549508951</v>
+        <v>1.02455674159876</v>
       </c>
       <c r="E4">
-        <v>1.014599251219229</v>
+        <v>1.014414062826898</v>
       </c>
       <c r="F4">
-        <v>1.031571713554869</v>
+        <v>1.031440293625234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04811865884294</v>
+        <v>1.047825903208331</v>
       </c>
       <c r="J4">
-        <v>1.029111229908676</v>
+        <v>1.028899254778961</v>
       </c>
       <c r="K4">
-        <v>1.035002072876079</v>
+        <v>1.034367554047049</v>
       </c>
       <c r="L4">
-        <v>1.024524612323189</v>
+        <v>1.024341580630437</v>
       </c>
       <c r="M4">
-        <v>1.041303462148654</v>
+        <v>1.041173511249218</v>
       </c>
       <c r="N4">
-        <v>1.013653816223429</v>
+        <v>1.014896648088969</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041261309894322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041158462571533</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02109546164953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010863319689807</v>
+        <v>1.010610631780555</v>
       </c>
       <c r="D5">
-        <v>1.025831695439754</v>
+        <v>1.025138753535326</v>
       </c>
       <c r="E5">
-        <v>1.015304984901422</v>
+        <v>1.0150890130332</v>
       </c>
       <c r="F5">
-        <v>1.03226990115357</v>
+        <v>1.032121029356272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048365472952669</v>
+        <v>1.048044805665944</v>
       </c>
       <c r="J5">
-        <v>1.029545290318309</v>
+        <v>1.029298711478637</v>
       </c>
       <c r="K5">
-        <v>1.035410996283283</v>
+        <v>1.034725716776545</v>
       </c>
       <c r="L5">
-        <v>1.02500207715967</v>
+        <v>1.024788553490603</v>
       </c>
       <c r="M5">
-        <v>1.041778613383796</v>
+        <v>1.041631361613005</v>
       </c>
       <c r="N5">
-        <v>1.013799229945673</v>
+        <v>1.015002979666437</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041637359744558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041520820015047</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021162911085459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011014656714653</v>
+        <v>1.010756073314252</v>
       </c>
       <c r="D6">
-        <v>1.025937665489836</v>
+        <v>1.025236175101685</v>
       </c>
       <c r="E6">
-        <v>1.015423149606396</v>
+        <v>1.01520203486737</v>
       </c>
       <c r="F6">
-        <v>1.032386820797947</v>
+        <v>1.032235033938625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048406630849642</v>
+        <v>1.048081296143198</v>
       </c>
       <c r="J6">
-        <v>1.029617878291643</v>
+        <v>1.029365514779036</v>
       </c>
       <c r="K6">
-        <v>1.035479360272473</v>
+        <v>1.03478559170714</v>
       </c>
       <c r="L6">
-        <v>1.02508196314301</v>
+        <v>1.024863343436953</v>
       </c>
       <c r="M6">
-        <v>1.041858128162497</v>
+        <v>1.041707985538993</v>
       </c>
       <c r="N6">
-        <v>1.013823546468404</v>
+        <v>1.01502076177284</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04170029025876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041581462626716</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021174149882747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009971007925873</v>
+        <v>1.009759972972448</v>
       </c>
       <c r="D7">
-        <v>1.025207032354779</v>
+        <v>1.024569843508931</v>
       </c>
       <c r="E7">
-        <v>1.014608703536117</v>
+        <v>1.014429191777204</v>
       </c>
       <c r="F7">
-        <v>1.031581063562311</v>
+        <v>1.031452522429268</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04812197580667</v>
+        <v>1.047832560026239</v>
       </c>
       <c r="J7">
-        <v>1.029117049517536</v>
+        <v>1.028911269702965</v>
       </c>
       <c r="K7">
-        <v>1.035007556824</v>
+        <v>1.034377601995982</v>
       </c>
       <c r="L7">
-        <v>1.024531011220778</v>
+        <v>1.02435358928889</v>
       </c>
       <c r="M7">
-        <v>1.041309828970525</v>
+        <v>1.04118272417221</v>
       </c>
       <c r="N7">
-        <v>1.013655765907489</v>
+        <v>1.014925678050199</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041266348801618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041165753975683</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021097932222631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005531669289769</v>
+        <v>1.005509625878799</v>
       </c>
       <c r="D8">
-        <v>1.022103347967677</v>
+        <v>1.021729262430507</v>
       </c>
       <c r="E8">
-        <v>1.011155585381502</v>
+        <v>1.011140986848241</v>
       </c>
       <c r="F8">
-        <v>1.02816751886084</v>
+        <v>1.028131860555805</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.0468907097317</v>
+        <v>1.046746406144606</v>
       </c>
       <c r="J8">
-        <v>1.02698061745822</v>
+        <v>1.026959203907595</v>
       </c>
       <c r="K8">
-        <v>1.032992012977123</v>
+        <v>1.032622726504845</v>
       </c>
       <c r="L8">
-        <v>1.02218653806511</v>
+        <v>1.022172131847505</v>
       </c>
       <c r="M8">
-        <v>1.038978995924245</v>
+        <v>1.038943788175295</v>
       </c>
       <c r="N8">
-        <v>1.012939907305691</v>
+        <v>1.014458698340303</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039421650322634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039393785707641</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020763461083942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9974018084125146</v>
+        <v>0.9977101636367295</v>
       </c>
       <c r="D9">
-        <v>1.016438096119474</v>
+        <v>1.016533000648385</v>
       </c>
       <c r="E9">
-        <v>1.004876933209355</v>
+        <v>1.005149129915893</v>
       </c>
       <c r="F9">
-        <v>1.021971683015255</v>
+        <v>1.022099124786439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044560137719979</v>
+        <v>1.044671120031692</v>
       </c>
       <c r="J9">
-        <v>1.023046650317092</v>
+        <v>1.023344041862173</v>
       </c>
       <c r="K9">
-        <v>1.029269989879549</v>
+        <v>1.029363417825</v>
       </c>
       <c r="L9">
-        <v>1.01789137803944</v>
+        <v>1.018159214859157</v>
       </c>
       <c r="M9">
-        <v>1.034718066479663</v>
+        <v>1.034843552816445</v>
       </c>
       <c r="N9">
-        <v>1.011621301989872</v>
+        <v>1.013505690290477</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036049397347106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03614871198033</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020120204326303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918125486045273</v>
+        <v>0.9923813925118748</v>
       </c>
       <c r="D10">
-        <v>1.012567574785273</v>
+        <v>1.013009282255062</v>
       </c>
       <c r="E10">
-        <v>1.000599271694599</v>
+        <v>1.001097205484877</v>
       </c>
       <c r="F10">
-        <v>1.017926048565775</v>
+        <v>1.01818085099868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042936275009608</v>
+        <v>1.043238972938421</v>
       </c>
       <c r="J10">
-        <v>1.02035481635952</v>
+        <v>1.020900577681614</v>
       </c>
       <c r="K10">
-        <v>1.026713565659277</v>
+        <v>1.027147556683519</v>
       </c>
       <c r="L10">
-        <v>1.014957714529247</v>
+        <v>1.01544667776615</v>
       </c>
       <c r="M10">
-        <v>1.03197901387553</v>
+        <v>1.032229424356684</v>
       </c>
       <c r="N10">
-        <v>1.010722944596191</v>
+        <v>1.012974916006715</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033933327678862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034131500095412</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019676204313087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9897541176425585</v>
+        <v>0.9904488218284936</v>
       </c>
       <c r="D11">
-        <v>1.011217554135077</v>
+        <v>1.011803183299081</v>
       </c>
       <c r="E11">
-        <v>0.999084993422337</v>
+        <v>0.9996909800826562</v>
       </c>
       <c r="F11">
-        <v>1.017825191972731</v>
+        <v>1.018139280299769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042536010478583</v>
+        <v>1.042922933700342</v>
       </c>
       <c r="J11">
-        <v>1.019559437755408</v>
+        <v>1.02022441073339</v>
       </c>
       <c r="K11">
-        <v>1.025930979651866</v>
+        <v>1.02650588955932</v>
       </c>
       <c r="L11">
-        <v>1.014024186081188</v>
+        <v>1.014618726420502</v>
       </c>
       <c r="M11">
-        <v>1.032418602437017</v>
+        <v>1.032727036354931</v>
       </c>
       <c r="N11">
-        <v>1.010492661165145</v>
+        <v>1.013048316218601</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034719322470623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034963290066235</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01957894502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9891144174693924</v>
+        <v>0.9898473815126632</v>
       </c>
       <c r="D12">
-        <v>1.010823344663693</v>
+        <v>1.011450469351324</v>
       </c>
       <c r="E12">
-        <v>0.9986373925929274</v>
+        <v>0.9992751246910222</v>
       </c>
       <c r="F12">
-        <v>1.018354674713411</v>
+        <v>1.018686240261193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042487747490597</v>
+        <v>1.042899574893449</v>
       </c>
       <c r="J12">
-        <v>1.019386728074958</v>
+        <v>1.020087721424093</v>
       </c>
       <c r="K12">
-        <v>1.025746083179661</v>
+        <v>1.026361535937114</v>
       </c>
       <c r="L12">
-        <v>1.01379074465339</v>
+        <v>1.014416225356641</v>
       </c>
       <c r="M12">
-        <v>1.033138478641924</v>
+        <v>1.033463989073123</v>
       </c>
       <c r="N12">
-        <v>1.010463471668654</v>
+        <v>1.013133110152521</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035616199777776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035873586969328</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019571613340981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9895243310334277</v>
+        <v>0.990221793995148</v>
       </c>
       <c r="D13">
-        <v>1.011138470388458</v>
+        <v>1.011724233908292</v>
       </c>
       <c r="E13">
-        <v>0.9989789224166612</v>
+        <v>0.9995842528031186</v>
       </c>
       <c r="F13">
-        <v>1.019424916881978</v>
+        <v>1.019739207906102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042712649127247</v>
+        <v>1.043100781838044</v>
       </c>
       <c r="J13">
-        <v>1.01968448377203</v>
+        <v>1.020351670434313</v>
       </c>
       <c r="K13">
-        <v>1.026012013365337</v>
+        <v>1.026586919533048</v>
       </c>
       <c r="L13">
-        <v>1.014081611078847</v>
+        <v>1.014675361509558</v>
       </c>
       <c r="M13">
-        <v>1.03414637673568</v>
+        <v>1.034454962786971</v>
       </c>
       <c r="N13">
-        <v>1.010588007913147</v>
+        <v>1.013197656511657</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03669048701496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036934430222835</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01963314775433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9902816788607683</v>
+        <v>0.9909220641570365</v>
       </c>
       <c r="D14">
-        <v>1.011675769428971</v>
+        <v>1.012196259283029</v>
       </c>
       <c r="E14">
-        <v>0.9995709916740817</v>
+        <v>1.000125793257605</v>
       </c>
       <c r="F14">
-        <v>1.020405121900026</v>
+        <v>1.020692251228618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042989171197044</v>
+        <v>1.043339435895672</v>
       </c>
       <c r="J14">
-        <v>1.02010065631075</v>
+        <v>1.020713635336681</v>
       </c>
       <c r="K14">
-        <v>1.026397491108199</v>
+        <v>1.026908451987406</v>
       </c>
       <c r="L14">
-        <v>1.014517982489965</v>
+        <v>1.015062303439079</v>
       </c>
       <c r="M14">
-        <v>1.034968699110554</v>
+        <v>1.035250686369121</v>
       </c>
       <c r="N14">
-        <v>1.010742885616957</v>
+        <v>1.013233597380041</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037514161160905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037737047361988</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019706470200615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9907001755246464</v>
+        <v>0.9913108892714508</v>
       </c>
       <c r="D15">
-        <v>1.011967009876182</v>
+        <v>1.012453485642217</v>
       </c>
       <c r="E15">
-        <v>0.9998924460872705</v>
+        <v>1.000421306172887</v>
       </c>
       <c r="F15">
-        <v>1.020793482037951</v>
+        <v>1.021066553408059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043122144841956</v>
+        <v>1.043452641814915</v>
       </c>
       <c r="J15">
-        <v>1.020311556790738</v>
+        <v>1.020896359995482</v>
       </c>
       <c r="K15">
-        <v>1.026596026364066</v>
+        <v>1.027073663037356</v>
       </c>
       <c r="L15">
-        <v>1.014744452115279</v>
+        <v>1.015263398202004</v>
       </c>
       <c r="M15">
-        <v>1.03526382503804</v>
+        <v>1.035532044173477</v>
       </c>
       <c r="N15">
-        <v>1.010816630772081</v>
+        <v>1.013242778462264</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037785022782508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037997020903678</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01974128012383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9929798490044432</v>
+        <v>0.9934433565287321</v>
       </c>
       <c r="D16">
-        <v>1.013538662330772</v>
+        <v>1.013852696701115</v>
       </c>
       <c r="E16">
-        <v>1.00162532638701</v>
+        <v>1.002026750515083</v>
       </c>
       <c r="F16">
-        <v>1.022347307762068</v>
+        <v>1.022550495605828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043779111161507</v>
+        <v>1.044009888747593</v>
       </c>
       <c r="J16">
-        <v>1.021397103513379</v>
+        <v>1.021841922776625</v>
       </c>
       <c r="K16">
-        <v>1.027631727381543</v>
+        <v>1.027940304439384</v>
       </c>
       <c r="L16">
-        <v>1.01592870528486</v>
+        <v>1.016322937065975</v>
       </c>
       <c r="M16">
-        <v>1.0362889377518</v>
+        <v>1.036488672209112</v>
       </c>
       <c r="N16">
-        <v>1.011174154517568</v>
+        <v>1.013284217313023</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038556490464043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.038714363379063</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019912516553658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9943367597908308</v>
+        <v>0.9947241653845325</v>
       </c>
       <c r="D17">
-        <v>1.014467301340327</v>
+        <v>1.014688301284749</v>
       </c>
       <c r="E17">
-        <v>1.002650043291981</v>
+        <v>1.002986037026425</v>
       </c>
       <c r="F17">
-        <v>1.023024136865674</v>
+        <v>1.02319093657392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044138097403078</v>
+        <v>1.044315737880588</v>
       </c>
       <c r="J17">
-        <v>1.022014321112382</v>
+        <v>1.022386606818009</v>
       </c>
       <c r="K17">
-        <v>1.028226333843491</v>
+        <v>1.028443601193479</v>
       </c>
       <c r="L17">
-        <v>1.016611766650122</v>
+        <v>1.016941911984205</v>
       </c>
       <c r="M17">
-        <v>1.036640163694289</v>
+        <v>1.036804206358203</v>
       </c>
       <c r="N17">
-        <v>1.011367977959134</v>
+        <v>1.013326241263805</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038704846599076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.038834521153785</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020006555305594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9950103086043173</v>
+        <v>0.9953679529116106</v>
       </c>
       <c r="D18">
-        <v>1.014910238656099</v>
+        <v>1.015093032031046</v>
       </c>
       <c r="E18">
-        <v>1.003142797077129</v>
+        <v>1.003453870311793</v>
       </c>
       <c r="F18">
-        <v>1.022901121203766</v>
+        <v>1.023053557283875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044255528104227</v>
+        <v>1.044411541915896</v>
       </c>
       <c r="J18">
-        <v>1.022263154879402</v>
+        <v>1.02260710281401</v>
       </c>
       <c r="K18">
-        <v>1.028476471233794</v>
+        <v>1.028656228320638</v>
       </c>
       <c r="L18">
-        <v>1.016907501369259</v>
+        <v>1.017213250595638</v>
       </c>
       <c r="M18">
-        <v>1.036335923021033</v>
+        <v>1.036485877533903</v>
       </c>
       <c r="N18">
-        <v>1.011430374728998</v>
+        <v>1.013329248142714</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03822612447754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.038344687232928</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020035935750052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9950368269851702</v>
+        <v>0.995403700499586</v>
       </c>
       <c r="D19">
-        <v>1.014886967916669</v>
+        <v>1.015080242022058</v>
       </c>
       <c r="E19">
-        <v>1.003128831024976</v>
+        <v>1.003449072779495</v>
       </c>
       <c r="F19">
-        <v>1.021989335673934</v>
+        <v>1.022146218832132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044134347725073</v>
+        <v>1.044296222468395</v>
       </c>
       <c r="J19">
-        <v>1.022152924946443</v>
+        <v>1.022505832155491</v>
       </c>
       <c r="K19">
-        <v>1.028390394462573</v>
+        <v>1.028580475205826</v>
       </c>
       <c r="L19">
-        <v>1.016829519702876</v>
+        <v>1.017144309799115</v>
       </c>
       <c r="M19">
-        <v>1.03537643259461</v>
+        <v>1.035530769601416</v>
       </c>
       <c r="N19">
-        <v>1.011366574315975</v>
+        <v>1.013271753022956</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03714097546783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.037263043365027</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020000541678501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9932613732493349</v>
+        <v>0.9937434498305115</v>
       </c>
       <c r="D20">
-        <v>1.013570075278571</v>
+        <v>1.013906965210756</v>
       </c>
       <c r="E20">
-        <v>1.001705926114984</v>
+        <v>1.002128232261464</v>
       </c>
       <c r="F20">
-        <v>1.018979953311544</v>
+        <v>1.019192931668632</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043361830254411</v>
+        <v>1.043604571891496</v>
       </c>
       <c r="J20">
-        <v>1.021054552022668</v>
+        <v>1.021517699806587</v>
       </c>
       <c r="K20">
-        <v>1.027378435571875</v>
+        <v>1.027709607162287</v>
       </c>
       <c r="L20">
-        <v>1.015718845048384</v>
+        <v>1.016133762215609</v>
       </c>
       <c r="M20">
-        <v>1.032697076038676</v>
+        <v>1.032906488057168</v>
       </c>
       <c r="N20">
-        <v>1.010956656224763</v>
+        <v>1.013040403086806</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03449099412593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.034656722776191</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019788464051794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9889872716458724</v>
+        <v>0.9897653910755485</v>
       </c>
       <c r="D21">
-        <v>1.010601740241391</v>
+        <v>1.011280120234703</v>
       </c>
       <c r="E21">
-        <v>0.9984362896080318</v>
+        <v>0.9991177355719331</v>
       </c>
       <c r="F21">
-        <v>1.015629842690157</v>
+        <v>1.01598486480145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042062408309225</v>
+        <v>1.042503708351703</v>
       </c>
       <c r="J21">
-        <v>1.01895275716678</v>
+        <v>1.019697338121369</v>
       </c>
       <c r="K21">
-        <v>1.02538500509573</v>
+        <v>1.026050892882175</v>
       </c>
       <c r="L21">
-        <v>1.013447347644428</v>
+        <v>1.014115842023538</v>
       </c>
       <c r="M21">
-        <v>1.030321032219643</v>
+        <v>1.030669597932817</v>
       </c>
       <c r="N21">
-        <v>1.010248749278168</v>
+        <v>1.012970274641841</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032569409305366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.032845278722033</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019453025327707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9862747685786699</v>
+        <v>0.9872393375402739</v>
       </c>
       <c r="D22">
-        <v>1.008726604721836</v>
+        <v>1.009619996312466</v>
       </c>
       <c r="E22">
-        <v>0.9963720817321945</v>
+        <v>0.9972165387704347</v>
       </c>
       <c r="F22">
-        <v>1.013600175877437</v>
+        <v>1.014044735347721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041241600719611</v>
+        <v>1.041807514387312</v>
       </c>
       <c r="J22">
-        <v>1.017629423916224</v>
+        <v>1.018550009017889</v>
       </c>
       <c r="K22">
-        <v>1.02412714571282</v>
+        <v>1.025003258110442</v>
       </c>
       <c r="L22">
-        <v>1.012015752620818</v>
+        <v>1.012843338975963</v>
       </c>
       <c r="M22">
-        <v>1.028906940913205</v>
+        <v>1.029343004987829</v>
       </c>
       <c r="N22">
-        <v>1.009805045587429</v>
+        <v>1.012922234205684</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031450237458822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.031795357256801</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019240579777395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877177409814002</v>
+        <v>0.9885722898895124</v>
       </c>
       <c r="D23">
-        <v>1.009723731378843</v>
+        <v>1.010494331131609</v>
       </c>
       <c r="E23">
-        <v>0.9974694658824005</v>
+        <v>0.9982174771018831</v>
       </c>
       <c r="F23">
-        <v>1.014679025326369</v>
+        <v>1.015070969312116</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041679118232104</v>
+        <v>1.042172950703016</v>
       </c>
       <c r="J23">
-        <v>1.018333587155999</v>
+        <v>1.01915030721399</v>
       </c>
       <c r="K23">
-        <v>1.024796581626187</v>
+        <v>1.025552656981115</v>
       </c>
       <c r="L23">
-        <v>1.012777242238789</v>
+        <v>1.013510696628463</v>
       </c>
       <c r="M23">
-        <v>1.029658979891373</v>
+        <v>1.030043626694222</v>
       </c>
       <c r="N23">
-        <v>1.01004114705672</v>
+        <v>1.012906109596108</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032045433231264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.032349858946112</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019351328651017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9932893456733005</v>
+        <v>0.9937712943276267</v>
       </c>
       <c r="D24">
-        <v>1.013582074940038</v>
+        <v>1.013918829592999</v>
       </c>
       <c r="E24">
-        <v>1.00172204534317</v>
+        <v>1.002144384856335</v>
       </c>
       <c r="F24">
-        <v>1.018863480034263</v>
+        <v>1.019076453807657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043349147561595</v>
+        <v>1.043591777970758</v>
       </c>
       <c r="J24">
-        <v>1.021048186522315</v>
+        <v>1.021511239531114</v>
       </c>
       <c r="K24">
-        <v>1.027374799724267</v>
+        <v>1.027705845845991</v>
       </c>
       <c r="L24">
-        <v>1.015718987273394</v>
+        <v>1.016133947054566</v>
       </c>
       <c r="M24">
-        <v>1.032567236506802</v>
+        <v>1.032776647541784</v>
       </c>
       <c r="N24">
-        <v>1.010951307193801</v>
+        <v>1.013032447865572</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034347146988885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.034512883193753</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019784643831832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9995416377675501</v>
+        <v>0.9997538749721752</v>
       </c>
       <c r="D25">
-        <v>1.017926800489487</v>
+        <v>1.017891247396292</v>
       </c>
       <c r="E25">
-        <v>1.006524037490585</v>
+        <v>1.006712738413608</v>
       </c>
       <c r="F25">
-        <v>1.023595744170479</v>
+        <v>1.023676053472919</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045182182178769</v>
+        <v>1.04522126262819</v>
       </c>
       <c r="J25">
-        <v>1.024084437482609</v>
+        <v>1.024289525046168</v>
       </c>
       <c r="K25">
-        <v>1.030253056927422</v>
+        <v>1.030218031336677</v>
       </c>
       <c r="L25">
-        <v>1.019021913400955</v>
+        <v>1.019207733904275</v>
       </c>
       <c r="M25">
-        <v>1.035838485197649</v>
+        <v>1.035917619808429</v>
       </c>
       <c r="N25">
-        <v>1.011969194712714</v>
+        <v>1.0137245528969</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036936138606637</v>
+        <v>1.036998768654176</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020290518835725</v>
       </c>
     </row>
   </sheetData>
